--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_19-33.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_19-33.xlsx
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>ماسك جلسات اطفال</t>
+  </si>
+  <si>
+    <t xml:space="preserve">معجون سيجنال 120 مل </t>
   </si>
   <si>
     <t>معجون سيجنال 25 مل</t>
@@ -3436,13 +3439,13 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
@@ -3462,17 +3465,17 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" ht="24.75" customHeight="1">
@@ -3488,51 +3491,77 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="100" ht="26.25" customHeight="1">
-      <c r="K100" s="10">
-        <v>4577.0200000000004</v>
-      </c>
-      <c r="L100" s="10"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="10"/>
-    </row>
-    <row r="101" ht="16.5" customHeight="1">
-      <c t="s" r="A101" s="11">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" ht="25.5" customHeight="1">
+      <c r="A100" s="6">
+        <v>97</v>
+      </c>
+      <c t="s" r="B100" s="7">
+        <v>138</v>
+      </c>
+      <c r="C100" s="7"/>
+      <c r="D100" s="7"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7"/>
+      <c t="s" r="H100" s="8">
         <v>139</v>
       </c>
-      <c r="B101" s="11"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
-      <c t="s" r="F101" s="12">
+      <c r="I100" s="8"/>
+      <c r="J100" s="8"/>
+      <c r="K100" s="8"/>
+      <c r="L100" s="9">
+        <v>20</v>
+      </c>
+      <c r="M100" s="9"/>
+      <c t="s" r="N100" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101" ht="25.5" customHeight="1">
+      <c r="K101" s="10">
+        <v>4637.0200000000004</v>
+      </c>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+    </row>
+    <row r="102" ht="16.5" customHeight="1">
+      <c t="s" r="A102" s="11">
         <v>140</v>
       </c>
-      <c r="G101" s="12"/>
-      <c r="H101" s="13"/>
-      <c t="s" r="I101" s="14">
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="11"/>
+      <c t="s" r="F102" s="12">
         <v>141</v>
       </c>
-      <c r="J101" s="14"/>
-      <c r="K101" s="14"/>
-      <c r="L101" s="14"/>
-      <c r="M101" s="14"/>
-      <c r="N101" s="14"/>
+      <c r="G102" s="12"/>
+      <c r="H102" s="13"/>
+      <c t="s" r="I102" s="14">
+        <v>142</v>
+      </c>
+      <c r="J102" s="14"/>
+      <c r="K102" s="14"/>
+      <c r="L102" s="14"/>
+      <c r="M102" s="14"/>
+      <c r="N102" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="299">
+  <mergeCells count="302">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -3828,10 +3857,13 @@
     <mergeCell ref="B99:G99"/>
     <mergeCell ref="H99:K99"/>
     <mergeCell ref="L99:M99"/>
-    <mergeCell ref="K100:N100"/>
-    <mergeCell ref="A101:E101"/>
-    <mergeCell ref="F101:G101"/>
-    <mergeCell ref="I101:N101"/>
+    <mergeCell ref="B100:G100"/>
+    <mergeCell ref="H100:K100"/>
+    <mergeCell ref="L100:M100"/>
+    <mergeCell ref="K101:N101"/>
+    <mergeCell ref="A102:E102"/>
+    <mergeCell ref="F102:G102"/>
+    <mergeCell ref="I102:N102"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
